--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168529.247016557</v>
+        <v>2166641.665500155</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>73.46100831328349</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>138.6938860987907</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>154.9613742010232</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>52.30721380761567</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>52.10844059186289</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.2557485598869</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7670008777446</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>280.9377015860165</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>119.3786445880208</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>234.8031540381806</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2017,7 +2017,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>41.20161853961719</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.0479505225348</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>173.9898110906265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>142.4312553669866</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>16.54954539489892</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>215.0546805228893</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>120.202322877002</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801189</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437396</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>21.61137591105112</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357147</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523551</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>155.7694950703019</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.361678333737</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346314</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415221</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287473</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497981</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898725</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857177</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692859</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329066</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.361678333737</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789555</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896875</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3597,10 +3597,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.3318138408822</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>972.3318138408822</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4468,22 +4468,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834949</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.345729894537</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1520.080031287787</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2644.31352151558</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834949</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834949</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
         <v>675.4941957298054</v>
@@ -4717,58 +4717,58 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4802,7 +4802,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4826,22 +4826,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6692635248399</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>380.7330805969331</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>380.7330805969331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>380.7330805969331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>380.7330805969331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609665</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550797</v>
+        <v>536.7509009095821</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550797</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550797</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3177283550797</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5364,16 +5364,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>217.8015809431351</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>217.8015809431351</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5434,13 +5434,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550793</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W16" t="n">
-        <v>494.14282528621</v>
+        <v>620.242624916905</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881928</v>
+        <v>620.242624916905</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>399.4500457733749</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247857</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247857</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188988</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188988</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X19" t="n">
-        <v>667.833457114235</v>
+        <v>792.4568162435039</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.0408779707049</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5941,19 +5941,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609661</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
         <v>731.3177283550792</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181186</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201013</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.6010158349786</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="C25" t="n">
-        <v>545.6648329070717</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947359</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123427</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123427</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123427</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347407</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609655</v>
+        <v>1131.26090043126</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550785</v>
+        <v>876.5764122253732</v>
       </c>
       <c r="W25" t="n">
-        <v>714.6010158349786</v>
+        <v>587.1592421884127</v>
       </c>
       <c r="X25" t="n">
-        <v>714.6010158349786</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="Y25" t="n">
-        <v>714.6010158349786</v>
+        <v>359.1696912903953</v>
       </c>
     </row>
     <row r="26">
@@ -6221,40 +6221,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610116</v>
+        <v>821.8466850111568</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331047</v>
+        <v>821.8466850111568</v>
       </c>
       <c r="D28" t="n">
-        <v>560.195454220769</v>
+        <v>671.7300455988211</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383757</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1281.689320534781</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1281.689320534781</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.689320534781</v>
+        <v>1042.639264154687</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>1042.639264154687</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>821.8466850111568</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,28 +6467,28 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572983</v>
+        <v>454.4181912574274</v>
       </c>
       <c r="C31" t="n">
-        <v>470.5162571107625</v>
+        <v>454.4181912574274</v>
       </c>
       <c r="D31" t="n">
-        <v>470.5162571107625</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="E31" t="n">
-        <v>378.3640288097405</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="F31" t="n">
-        <v>287.2349465932011</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>174.8204901943927</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899272</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970149</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465078</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540562</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784973</v>
+        <v>902.680428981892</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683261</v>
+        <v>745.3375046684557</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.579174306167</v>
+        <v>580.3057908062964</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.85457301429</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550599</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610187</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003437</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405192</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155849</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.85457301429</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.56127523126</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141864</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465297</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121727</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851612</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614721</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.538293612648</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636242</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,19 +7804,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504506</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776773</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445227</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>34.72656758563295</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5.299650812560825</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>29.23682843019156</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>51.71984429841041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>184.50803684942</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>25.53670282956</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>33.386851567319</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>51.71984429841064</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.8060970315907</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.9734529416921</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>71.1826718756881</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>166.320675459589</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.09919582792773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>14.73690369017824</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669377</v>
       </c>
     </row>
     <row r="11">
@@ -26314,25 +26314,25 @@
         <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459069</v>
-      </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
@@ -26341,16 +26341,16 @@
         <v>549209.8854161141</v>
       </c>
       <c r="L2" t="n">
+        <v>554203.1946583907</v>
+      </c>
+      <c r="M2" t="n">
+        <v>554203.1946583906</v>
+      </c>
+      <c r="N2" t="n">
+        <v>554203.1946583905</v>
+      </c>
+      <c r="O2" t="n">
         <v>554203.1946583908</v>
-      </c>
-      <c r="M2" t="n">
-        <v>554203.1946583908</v>
-      </c>
-      <c r="N2" t="n">
-        <v>554203.1946583909</v>
-      </c>
-      <c r="O2" t="n">
-        <v>554203.1946583905</v>
       </c>
       <c r="P2" t="n">
         <v>554203.1946583907</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284589</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086663</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.850323082588147e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284589</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,34 +26427,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143912</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143908</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563571</v>
+        <v>33210.29213563561</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275953</v>
+        <v>37464.45686275971</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275977</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002535</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002533</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002538</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707855</v>
+        <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437591</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.158343759</v>
+        <v>314569.1583437588</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011449</v>
+        <v>-104401.2605271169</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757513</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757511</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.2350757512</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="I6" t="n">
-        <v>420856.2350757512</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831583</v>
+        <v>244335.556757186</v>
       </c>
       <c r="K6" t="n">
-        <v>375208.7794474097</v>
+        <v>375190.2857094757</v>
       </c>
       <c r="L6" t="n">
-        <v>408680.7251747393</v>
+        <v>408680.7251747388</v>
       </c>
       <c r="M6" t="n">
         <v>284222.6167417686</v>
       </c>
       <c r="N6" t="n">
-        <v>419023.6319756061</v>
+        <v>419023.6319756057</v>
       </c>
       <c r="O6" t="n">
-        <v>419023.6319756055</v>
+        <v>419023.6319756056</v>
       </c>
       <c r="P6" t="n">
-        <v>374861.0266727599</v>
+        <v>374861.0266727601</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540996</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253572</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253572</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108329</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>333.4150374284279</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>247.5440525572629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>226.9689958712386</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>164.1411065500421</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>234.1734336501148</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752616</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339393</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.899014361901209e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964058</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443614</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444942</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041484</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304435</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927181</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540881</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647493</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104643</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386724</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127059</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215732</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.416877562298</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724842</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813458</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710954</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677462</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361484</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196122</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171317</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469071</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.387743223569</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337664</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351808</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,7 +35981,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520611</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303326</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109067</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081114</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951467</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.606025510912</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502045</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349793</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005176</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504659</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980125</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411078</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092017</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.090320520923</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502433</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38099,7 +38099,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
